--- a/trunk/Datos+Redes.xlsx
+++ b/trunk/Datos+Redes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="203">
   <si>
     <t>Nombre</t>
   </si>
@@ -265,13 +265,376 @@
   </si>
   <si>
     <t>10.38.23.92</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Máscara</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>10.5.1.71</t>
+  </si>
+  <si>
+    <t>10.38.23.252</t>
+  </si>
+  <si>
+    <t>10.38.23.255</t>
+  </si>
+  <si>
+    <t>10.38.23.144</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>10.38.23.159</t>
+  </si>
+  <si>
+    <t>10.38.23.191</t>
+  </si>
+  <si>
+    <t>157.43.1.248</t>
+  </si>
+  <si>
+    <t>157.43.1.252</t>
+  </si>
+  <si>
+    <t>10.38.23.96</t>
+  </si>
+  <si>
+    <t>10.38.23.248</t>
+  </si>
+  <si>
+    <t>192.168.23.255</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>157.43.1.251</t>
+  </si>
+  <si>
+    <t>157.43.1.255</t>
+  </si>
+  <si>
+    <t>10.38.23.127</t>
+  </si>
+  <si>
+    <t>10.38.23.251</t>
+  </si>
+  <si>
+    <t>10.38.23.143</t>
+  </si>
+  <si>
+    <t>10.38.23.95</t>
+  </si>
+  <si>
+    <t>10.38.1.127</t>
+  </si>
+  <si>
+    <t>10.7.1.255</t>
+  </si>
+  <si>
+    <t>10.38.1.255</t>
+  </si>
+  <si>
+    <t>Máscaras</t>
+  </si>
+  <si>
+    <t>10.5.1.70</t>
+  </si>
+  <si>
+    <t>Primer host</t>
+  </si>
+  <si>
+    <t>Ultimo host</t>
+  </si>
+  <si>
+    <t>10.38.23.1</t>
+  </si>
+  <si>
+    <t>10.38.23.190</t>
+  </si>
+  <si>
+    <t>10.38.23.253</t>
+  </si>
+  <si>
+    <t>10.38.23.145</t>
+  </si>
+  <si>
+    <t>157.43.1.249</t>
+  </si>
+  <si>
+    <t>157.43.1.253</t>
+  </si>
+  <si>
+    <t>10.38.23.97</t>
+  </si>
+  <si>
+    <t>10.38.23.249</t>
+  </si>
+  <si>
+    <t>10.38.23.65</t>
+  </si>
+  <si>
+    <t>10.38.1.1</t>
+  </si>
+  <si>
+    <t>10.38.1.129</t>
+  </si>
+  <si>
+    <t>10.38.23.254</t>
+  </si>
+  <si>
+    <t>10.38.23.158</t>
+  </si>
+  <si>
+    <t>192.168.23.254</t>
+  </si>
+  <si>
+    <t>157.43.1.250</t>
+  </si>
+  <si>
+    <t>157.43.1.254</t>
+  </si>
+  <si>
+    <t>10.38.23.126</t>
+  </si>
+  <si>
+    <t>10.38.23.250</t>
+  </si>
+  <si>
+    <t>10.38.23.142</t>
+  </si>
+  <si>
+    <t>10.38.23.94</t>
+  </si>
+  <si>
+    <t>10.38.1.126</t>
+  </si>
+  <si>
+    <t>10.7.1.254</t>
+  </si>
+  <si>
+    <t>10.38.1.254</t>
+  </si>
+  <si>
+    <t>Host A</t>
+  </si>
+  <si>
+    <t>TelServer</t>
+  </si>
+  <si>
+    <t>Host C</t>
+  </si>
+  <si>
+    <t>FTPServer</t>
+  </si>
+  <si>
+    <t>Host B</t>
+  </si>
+  <si>
+    <t>10.38.23.3</t>
+  </si>
+  <si>
+    <t>10.38.23.2</t>
+  </si>
+  <si>
+    <t>10.38.23.4</t>
+  </si>
+  <si>
+    <t>10.38.23.5</t>
+  </si>
+  <si>
+    <t>10.38.23.98</t>
+  </si>
+  <si>
+    <t>10.38.23.66</t>
+  </si>
+  <si>
+    <t>10.38.23.68</t>
+  </si>
+  <si>
+    <t>10.38.23.67</t>
+  </si>
+  <si>
+    <t>10.38.1.2</t>
+  </si>
+  <si>
+    <t>10.38.1.3</t>
+  </si>
+  <si>
+    <t>10.5.1.64 (X.25)</t>
+  </si>
+  <si>
+    <t>10.4.3.0</t>
+  </si>
+  <si>
+    <t>157.43.1.0 (Internet)</t>
+  </si>
+  <si>
+    <t>.0</t>
+  </si>
+  <si>
+    <t>.16</t>
+  </si>
+  <si>
+    <t>.32</t>
+  </si>
+  <si>
+    <t>.48</t>
+  </si>
+  <si>
+    <t>.64</t>
+  </si>
+  <si>
+    <t>.80</t>
+  </si>
+  <si>
+    <t>.96</t>
+  </si>
+  <si>
+    <t>.112</t>
+  </si>
+  <si>
+    <t>.128</t>
+  </si>
+  <si>
+    <t>.144</t>
+  </si>
+  <si>
+    <t>.160</t>
+  </si>
+  <si>
+    <t>.176</t>
+  </si>
+  <si>
+    <t>.192</t>
+  </si>
+  <si>
+    <t>.208</t>
+  </si>
+  <si>
+    <t>.224</t>
+  </si>
+  <si>
+    <t>.240</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>10.5.1.72</t>
+  </si>
+  <si>
+    <t>10.5.1.76</t>
+  </si>
+  <si>
+    <t>10.5.1.80</t>
+  </si>
+  <si>
+    <t>10.5.1.84</t>
+  </si>
+  <si>
+    <t>10.5.1.75</t>
+  </si>
+  <si>
+    <t>10.5.1.79</t>
+  </si>
+  <si>
+    <t>10.5.1.83</t>
+  </si>
+  <si>
+    <t>10.5.1.87</t>
+  </si>
+  <si>
+    <t>10.5.1.69</t>
+  </si>
+  <si>
+    <t>10.5.1.73</t>
+  </si>
+  <si>
+    <t>10.5.1.77</t>
+  </si>
+  <si>
+    <t>10.5.1.81</t>
+  </si>
+  <si>
+    <t>10.5.1.85</t>
+  </si>
+  <si>
+    <t>10.5.1.74</t>
+  </si>
+  <si>
+    <t>10.5.1.78</t>
+  </si>
+  <si>
+    <t>10.5.1.82</t>
+  </si>
+  <si>
+    <t>10.5.1.86</t>
+  </si>
+  <si>
+    <t>A1 (H1 - H11)</t>
+  </si>
+  <si>
+    <t>A2 (H1 - H15)</t>
+  </si>
+  <si>
+    <t>A3 (H1 - H30)</t>
+  </si>
+  <si>
+    <t>A4 (H11 - H15)</t>
+  </si>
+  <si>
+    <t>A5 (H11 - H30)</t>
+  </si>
+  <si>
+    <t>A6 (H15 - H30)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,###,###,###"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,16 +653,54 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -383,6 +784,575 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -392,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -427,6 +1397,240 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,7 +1643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -725,11 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1"/>
     <col min="2" max="2" width="18.28515625" style="1"/>
@@ -1865,31 +3067,1861 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW1"/>
+  <dimension ref="B1:JA46"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="257" width="13.28515625" style="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="13.28515625" style="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="261" width="13.28515625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="95"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="74">
+        <v>2</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="74">
+        <v>2</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="74">
+        <v>2</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="74">
+        <v>2</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="74">
+        <v>2</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20">
+        <v>47</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickTop="1">
+      <c r="B10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20">
+        <v>156</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20">
+        <v>18</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="20">
+        <v>13</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="20">
+        <v>26</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="20">
+        <v>123</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="20">
+        <v>131</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="42">
+        <v>125</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickTop="1"/>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="24" spans="2:16" ht="15.75" thickTop="1">
+      <c r="B24" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="90"/>
+      <c r="I24" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="90"/>
+      <c r="K24" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="90"/>
+      <c r="M24" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" s="90"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="31"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="31"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B30" s="33"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="2:16" ht="15.75" thickTop="1">
+      <c r="B32" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="79"/>
+      <c r="G32" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="79"/>
+      <c r="I32" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="90"/>
+      <c r="K32" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="79"/>
+      <c r="M32" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="79"/>
+      <c r="O32" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="79"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="86"/>
+      <c r="E34" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="86"/>
+      <c r="E35" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="86"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="66"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="86"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="66"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="67"/>
+    </row>
+    <row r="39" spans="2:16" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="40" spans="2:16">
+      <c r="B40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="98"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="92"/>
+      <c r="G40" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="92"/>
+      <c r="I40" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="92"/>
+      <c r="K40" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="92"/>
+      <c r="M40" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="92"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="97"/>
+      <c r="E43" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="69"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="69"/>
+      <c r="N44" s="71"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="69"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="71"/>
+    </row>
+    <row r="46" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B46" s="70"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="70"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW1"/>
+  <dimension ref="A2:IW38"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="257" width="13.28515625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="G3" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="101"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="107"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="101"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="105"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="107"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="110"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="110"/>
+    </row>
+    <row r="33" spans="7:15">
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
+    </row>
+    <row r="34" spans="7:15">
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="59"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
+    </row>
+    <row r="35" spans="7:15">
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="7:15">
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="59"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="7:15">
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="7:15">
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="62"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B3:E18"/>
+    <mergeCell ref="G3:J18"/>
+    <mergeCell ref="G31:J38"/>
+    <mergeCell ref="G23:J30"/>
+    <mergeCell ref="L23:O26"/>
+    <mergeCell ref="L27:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/trunk/Datos+Redes.xlsx
+++ b/trunk/Datos+Redes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="205">
   <si>
     <t>Nombre</t>
   </si>
@@ -444,7 +445,7 @@
     <t>157.43.1.254</t>
   </si>
   <si>
-    <t>10.38.23.96</t>
+    <t>10.4.3.0</t>
   </si>
   <si>
     <t>10.38.23.127</t>
@@ -474,6 +475,9 @@
     <t>10.38.23.142</t>
   </si>
   <si>
+    <t>10.4.3.64</t>
+  </si>
+  <si>
     <t>10.38.23.95</t>
   </si>
   <si>
@@ -525,10 +529,13 @@
     <t>A6 (H15 - H30)</t>
   </si>
   <si>
+    <t>10.4.3.1</t>
+  </si>
+  <si>
     <t>10.38.23.2</t>
   </si>
   <si>
-    <t>10.38.23.98</t>
+    <t>10.4.3.2</t>
   </si>
   <si>
     <t>10.38.23.3</t>
@@ -543,7 +550,10 @@
     <t>10.38.23.5</t>
   </si>
   <si>
-    <t>10.38.23.66</t>
+    <t>10.4.3.65</t>
+  </si>
+  <si>
+    <t>10.4.3.66</t>
   </si>
   <si>
     <t>10.38.1.2</t>
@@ -552,7 +562,7 @@
     <t>TelServer</t>
   </si>
   <si>
-    <t>10.38.23.67</t>
+    <t>10.4.3.67</t>
   </si>
   <si>
     <t>10.38.1.3</t>
@@ -564,7 +574,7 @@
     <t>Host B</t>
   </si>
   <si>
-    <t>10.38.23.68</t>
+    <t>10.4.3.68</t>
   </si>
   <si>
     <t>Host C</t>
@@ -598,9 +608,6 @@
   </si>
   <si>
     <t>.112</t>
-  </si>
-  <si>
-    <t>10.4.3.0</t>
   </si>
   <si>
     <t>.128</t>
@@ -631,39 +638,52 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,###"/>
+  <numFmts count="4">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
+    <numFmt formatCode="###,###,###,###" numFmtId="166"/>
+    <numFmt formatCode="#,##0" numFmtId="167"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
@@ -675,772 +695,565 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="31"/>
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00C6D9F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="22"/>
+        <fgColor rgb="00C6D9F1"/>
+        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="41">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
       <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
+      <right style="hair"/>
       <top/>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="88">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="21"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="167" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="26" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="27" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="28" fillId="2" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="29" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="31" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="21">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="3" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="40" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="6" numFmtId="165" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+  <cellStyles count="8">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal 1" xfId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00FF0000"/>
@@ -1502,371 +1315,29 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.28515625" style="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="13.28515625" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.6666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="1" width="13.3490196078431"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1360,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1900,7 +1371,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1914,14 +1385,14 @@
         <v>9</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1933,14 +1404,14 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="n">
         <v>47</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1954,14 +1425,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1975,14 +1446,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1994,14 +1465,14 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="n">
         <v>156</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2013,14 +1484,14 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2032,14 +1503,14 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2053,14 +1524,14 @@
         <v>9</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2074,14 +1545,14 @@
         <v>9</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2093,14 +1564,14 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2114,14 +1585,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2135,14 +1606,14 @@
         <v>9</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>123</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2154,14 +1625,14 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>130</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2173,14 +1644,14 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="n">
         <v>125</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2191,7 +1662,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +1685,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2224,7 +1695,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2244,7 +1715,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +1735,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2286,7 +1757,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2303,7 +1774,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2314,7 +1785,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -2350,7 +1821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>62</v>
@@ -2380,7 +1851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2396,7 +1867,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -2412,7 +1883,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2423,7 +1894,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +1921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
@@ -2471,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -2484,7 +1955,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -2497,7 +1968,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2508,7 +1979,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
@@ -2556,7 +2027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
         <v>75</v>
@@ -2575,7 +2046,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -2592,7 +2063,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2603,7 +2074,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
@@ -2630,7 +2101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>80</v>
@@ -2651,7 +2122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -2672,7 +2143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -2687,7 +2158,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2698,7 +2169,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2709,7 +2180,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2720,7 +2191,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2731,7 +2202,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2742,7 +2213,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2753,7 +2224,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2764,7 +2235,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2775,7 +2246,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2786,7 +2257,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2797,7 +2268,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2808,7 +2279,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2819,7 +2290,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2830,7 +2301,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2841,7 +2312,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2852,7 +2323,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2863,7 +2334,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2874,7 +2345,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2885,7 +2356,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2896,7 +2367,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2907,7 +2378,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2918,7 +2389,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2929,7 +2400,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2940,7 +2411,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2951,7 +2422,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2962,7 +2433,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2973,58 +2444,69 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
       <c r="A72" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P46"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.28515625" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.8941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="1" width="11.6235294117647"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -3033,1246 +2515,1214 @@
       <c r="H2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="81"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="18" t="s">
+      <c r="L2" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="B3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="26" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+      <c r="B4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+      <c r="B5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+      <c r="B6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
+      <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+      <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="37" t="n">
         <v>47</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+      <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="37" t="n">
         <v>156</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+      <c r="B13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+      <c r="B14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="40" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="37" t="n">
         <v>18</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="B17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="37" t="n">
         <v>13</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+      <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="37" t="n">
         <v>26</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="37" t="s">
+      <c r="D18" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="37" t="s">
+      <c r="G18" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="39" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="34" t="s">
+      <c r="I18" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="B19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="37" t="n">
         <v>123</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="37" t="s">
+      <c r="G19" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="34" t="s">
+      <c r="I19" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="B20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="37" t="n">
         <v>131</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="37" t="s">
+      <c r="G20" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="43" t="s">
+      <c r="I20" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+      <c r="B21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="46" t="n">
         <v>125</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="H21" s="47" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="82" t="s">
+      <c r="I21" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="B24" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82" t="s">
+      <c r="H24" s="49"/>
+      <c r="I24" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82" t="s">
+      <c r="J24" s="49"/>
+      <c r="K24" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="47"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="34" t="s">
+      <c r="L24" s="49"/>
+      <c r="M24" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="B25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="51"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="34" t="s">
+      <c r="O25" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="B26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="34" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="48" t="s">
+      <c r="N26" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="O26" s="51"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="34" t="s">
+      <c r="O26" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="B27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="34" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="48" t="s">
+      <c r="N27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="51"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="34"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="34"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="51"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="43"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="51"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="51"/>
+      <c r="O27" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="B28" s="36"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="B29" s="36"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="B30" s="45"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="B31" s="54"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="85" t="s">
+      <c r="E31" s="54"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="B32" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85" t="s">
+      <c r="F32" s="58"/>
+      <c r="G32" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="82" t="s">
+      <c r="H32" s="58"/>
+      <c r="I32" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="82"/>
-      <c r="K32" s="85" t="s">
+      <c r="J32" s="49"/>
+      <c r="K32" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85" t="s">
+      <c r="L32" s="58"/>
+      <c r="M32" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85" t="s">
+      <c r="N32" s="58"/>
+      <c r="O32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="85"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="34" t="s">
+      <c r="P32" s="58"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="B33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="34" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="50" t="s">
+      <c r="P33" s="53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="34" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="B34" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="34" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="L34" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="O34" s="34" t="s">
+      <c r="O34" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="P34" s="48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="34" t="s">
+      <c r="P34" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="B35" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="34" t="s">
+      <c r="C35" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="34" t="s">
+      <c r="G35" s="36"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="48" t="s">
+      <c r="L35" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N35" s="50" t="s">
+      <c r="N35" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="O35" s="34" t="s">
+      <c r="O35" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="P35" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="34" t="s">
+      <c r="P35" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+      <c r="B36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="34" t="s">
+      <c r="C36" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="50"/>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="34" t="s">
+      <c r="K36" s="36"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+      <c r="B37" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="34" t="s">
+      <c r="C37" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="50"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="53"/>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="86" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="53"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+      <c r="B38" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+      <c r="B40" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86" t="s">
+      <c r="F40" s="59"/>
+      <c r="G40" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86" t="s">
+      <c r="H40" s="59"/>
+      <c r="I40" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86" t="s">
+      <c r="J40" s="59"/>
+      <c r="K40" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86" t="s">
+      <c r="L40" s="59"/>
+      <c r="M40" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="86"/>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="54" t="s">
+      <c r="N40" s="59"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+      <c r="B41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="54" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="56" t="s">
+      <c r="J41" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="K41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="56" t="s">
+      <c r="L41" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="54" t="s">
+      <c r="M41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="56" t="s">
+      <c r="N41" s="62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="54" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+      <c r="B42" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="54" t="s">
+      <c r="D42" s="61"/>
+      <c r="E42" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="G42" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="54" t="s">
+      <c r="H42" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="K42" s="54" t="s">
+      <c r="J42" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="55" t="s">
+      <c r="L42" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="M42" s="54" t="s">
+      <c r="M42" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="N42" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="54" t="s">
+      <c r="N42" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
+      <c r="B43" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="54" t="s">
+      <c r="H43" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" s="54" t="s">
+      <c r="J43" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="55" t="s">
+      <c r="L43" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="N43" s="55" t="s">
+      <c r="M43" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="N43" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="54"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="54" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="54" t="s">
+      <c r="H44" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="54" t="s">
+      <c r="J44" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="L44" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" s="54"/>
-      <c r="N44" s="55"/>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="54"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="55"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="57"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="58" t="s">
+      <c r="G45" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="61"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="58"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B24:D24"/>
@@ -4280,564 +3730,608 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="13.28515625" style="1"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="13.3490196078431"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="89" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="B3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="G3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="66"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="66"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="66"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="69" t="s">
+      <c r="O18" s="77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="B22" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="65" t="s">
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="G23" s="89" t="s">
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+      <c r="G23" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="L23" s="89" t="s">
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="74"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="75"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="74"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="75"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="59" t="s">
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="B24" s="82"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="83"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="89" t="s">
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="B25" s="82"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="83"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="89" t="s">
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="66"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="89" t="s">
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="B31" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="L31" s="89" t="s">
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="L32" s="89" t="s">
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="L32" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-    </row>
-    <row r="33" spans="7:15">
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="66"/>
-    </row>
-    <row r="34" spans="7:15">
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
-    </row>
-    <row r="35" spans="7:15">
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="59" t="s">
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-    </row>
-    <row r="36" spans="7:15">
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="59" t="s">
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="66"/>
-    </row>
-    <row r="37" spans="7:15">
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="59" t="s">
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="66"/>
-    </row>
-    <row r="38" spans="7:15">
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="59" t="s">
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="79" t="s">
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="75"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="87" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G31:J38"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
     <mergeCell ref="B3:E18"/>
     <mergeCell ref="G3:J18"/>
     <mergeCell ref="G23:J30"/>
     <mergeCell ref="L23:O26"/>
     <mergeCell ref="L27:O28"/>
     <mergeCell ref="L29:O29"/>
+    <mergeCell ref="G31:J38"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/trunk/Datos+Redes.xlsx
+++ b/trunk/Datos+Redes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="205">
   <si>
     <t>Nombre</t>
   </si>
@@ -382,6 +382,9 @@
     <t>255.255.255.248</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>10.38.23.191</t>
   </si>
   <si>
@@ -478,13 +481,13 @@
     <t>10.4.3.64</t>
   </si>
   <si>
-    <t>10.38.23.95</t>
-  </si>
-  <si>
-    <t>10.38.23.65</t>
-  </si>
-  <si>
-    <t>10.38.23.94</t>
+    <t>10.4.3.95</t>
+  </si>
+  <si>
+    <t>10.4.3.65</t>
+  </si>
+  <si>
+    <t>10.4.3.94</t>
   </si>
   <si>
     <t>10.38.1.127</t>
@@ -548,9 +551,6 @@
   </si>
   <si>
     <t>10.38.23.5</t>
-  </si>
-  <si>
-    <t>10.4.3.65</t>
   </si>
   <si>
     <t>10.4.3.66</t>
@@ -638,11 +638,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="###,###,###,###" numFmtId="166"/>
-    <numFmt formatCode="#,##0" numFmtId="167"/>
+    <numFmt formatCode="###,###,###,###" numFmtId="165"/>
+    <numFmt formatCode="#,##0" numFmtId="166"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1025,220 +1024,217 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="21"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="2" fontId="6" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="6" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="2" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="2" fontId="6" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="6" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="166" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="167" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="165" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="166" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="166" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="167" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="0" fontId="4" numFmtId="167" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="166" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="167" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="26" fillId="2" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="27" fillId="2" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="28" fillId="2" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="29" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="31" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="166" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="4" numFmtId="167" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="167" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="26" fillId="2" fontId="6" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="3" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="24" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="27" fillId="2" fontId="6" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="28" fillId="2" fontId="6" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="29" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="31" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="32" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="21">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="3" fontId="6" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="40" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="6" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="33" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="34" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="35" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="36" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="37" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="38" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="39" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="40" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="4" fontId="6" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -1249,8 +1245,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal 1" xfId="15"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="15"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1327,14 +1323,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.6666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="1" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.1764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.756862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="1" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -2469,30 +2465,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P46"/>
+  <dimension ref="A2:P46"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.2980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="1" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6039215686275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.6039215686275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.0313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.9686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
@@ -2715,14 +2711,17 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+      <c r="A9" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="37" t="n">
         <v>47</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2732,18 +2731,18 @@
         <v>102</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="43" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2755,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>15</v>
@@ -2764,16 +2763,19 @@
         <v>90</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="A11" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>18</v>
@@ -2790,16 +2792,19 @@
         <v>114</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="A12" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
@@ -2816,13 +2821,13 @@
         <v>91</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
@@ -2833,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>15</v>
@@ -2842,13 +2847,13 @@
         <v>90</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
@@ -2859,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>15</v>
@@ -2868,16 +2873,19 @@
         <v>90</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
@@ -2885,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>28</v>
@@ -2894,13 +2902,13 @@
         <v>108</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
@@ -2911,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>15</v>
@@ -2920,13 +2928,13 @@
         <v>90</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
@@ -2946,16 +2954,19 @@
         <v>114</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+      <c r="A18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>28</v>
@@ -2972,13 +2983,13 @@
         <v>108</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
@@ -2998,16 +3009,19 @@
         <v>96</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="36" t="s">
         <v>38</v>
       </c>
@@ -3024,326 +3038,326 @@
         <v>91</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="46" t="n">
+      <c r="C21" s="45" t="n">
         <v>125</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="46" t="s">
         <v>163</v>
       </c>
+      <c r="I21" s="47" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
-      <c r="B24" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49" t="s">
+      <c r="H24" s="48"/>
+      <c r="I24" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49" t="s">
+      <c r="J24" s="48"/>
+      <c r="K24" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
       <c r="B25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="51" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="52" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="52" t="s">
         <v>83</v>
       </c>
       <c r="K25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="52" t="s">
         <v>83</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="N25" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="54"/>
+      <c r="O25" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
       <c r="B26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="50" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="50" t="s">
         <v>100</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="50" t="s">
         <v>106</v>
       </c>
       <c r="K26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="50" t="s">
         <v>112</v>
       </c>
       <c r="M26" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="N26" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="O26" s="54"/>
+      <c r="O26" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="B27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="50" t="s">
         <v>101</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="50" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="51" t="s">
+      <c r="L27" s="50" t="s">
         <v>113</v>
       </c>
       <c r="M27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="51" t="s">
+      <c r="N27" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="54"/>
+      <c r="O27" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="B28" s="36"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="52"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="53"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="54"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="B29" s="36"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="53"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
-      <c r="B30" s="45"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="54"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
-      <c r="B31" s="54"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="49" t="s">
+      <c r="H32" s="57"/>
+      <c r="I32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="58" t="s">
+      <c r="J32" s="48"/>
+      <c r="K32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58" t="s">
+      <c r="N32" s="57"/>
+      <c r="O32" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="58"/>
+      <c r="P32" s="57"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="B33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="51" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="52" t="s">
         <v>83</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="52" t="s">
         <v>83</v>
       </c>
       <c r="K33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="52" t="s">
         <v>83</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="53" t="s">
+      <c r="N33" s="52" t="s">
         <v>83</v>
       </c>
       <c r="O33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="53" t="s">
+      <c r="P33" s="52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3351,375 +3365,375 @@
       <c r="B34" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="51"/>
+      <c r="C34" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="50"/>
       <c r="E34" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="51" t="s">
-        <v>126</v>
+      <c r="F34" s="50" t="s">
+        <v>127</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="51" t="s">
-        <v>130</v>
+      <c r="H34" s="50" t="s">
+        <v>131</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="50" t="s">
         <v>75</v>
       </c>
       <c r="K34" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="51" t="s">
-        <v>136</v>
+      <c r="L34" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="M34" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="N34" s="53" t="s">
-        <v>140</v>
+      <c r="N34" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="O34" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="P34" s="51" t="s">
-        <v>170</v>
+      <c r="P34" s="50" t="s">
+        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="B35" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="51"/>
+      <c r="C35" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="50"/>
       <c r="E35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="51" t="s">
-        <v>127</v>
+      <c r="F35" s="50" t="s">
+        <v>128</v>
       </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="51" t="s">
+      <c r="J35" s="50" t="s">
         <v>80</v>
       </c>
       <c r="K35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="51" t="s">
-        <v>137</v>
+      <c r="L35" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="M35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N35" s="53" t="s">
-        <v>141</v>
+      <c r="N35" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="P35" s="51" t="s">
-        <v>172</v>
+      <c r="P35" s="50" t="s">
+        <v>173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="B36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="51"/>
+      <c r="C36" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="50"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="52"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="53"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="51" t="s">
+      <c r="J36" s="50" t="s">
         <v>58</v>
       </c>
       <c r="K36" s="36"/>
-      <c r="L36" s="53"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="53"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="53"/>
+      <c r="P36" s="52"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
       <c r="B37" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="51"/>
+      <c r="C37" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="50"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="52"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="51" t="s">
+      <c r="J37" s="50" t="s">
         <v>45</v>
       </c>
       <c r="K37" s="36"/>
-      <c r="L37" s="53"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="53"/>
+      <c r="N37" s="52"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="53"/>
+      <c r="P37" s="52"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
-      <c r="B38" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="55" t="s">
+      <c r="B38" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="57"/>
+      <c r="C38" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="56"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59" t="s">
+      <c r="F40" s="58"/>
+      <c r="G40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59" t="s">
+      <c r="H40" s="58"/>
+      <c r="I40" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59" t="s">
+      <c r="J40" s="58"/>
+      <c r="K40" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59" t="s">
+      <c r="L40" s="58"/>
+      <c r="M40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="59"/>
+      <c r="N40" s="58"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="62" t="s">
+      <c r="L41" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="60" t="s">
+      <c r="M41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="62" t="s">
+      <c r="N41" s="61" t="s">
         <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="60" t="s">
+      <c r="C42" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42" s="60" t="s">
+      <c r="H42" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="60" t="s">
+      <c r="J42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="N42" s="61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
-      <c r="B43" s="60" t="s">
+      <c r="N42" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43">
+      <c r="B43" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="60" t="s">
+      <c r="C43" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="60" t="s">
+      <c r="I43" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="61" t="s">
+      <c r="J43" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="61" t="s">
+      <c r="L43" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="60" t="s">
+      <c r="M43" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="N43" s="61" t="s">
+      <c r="N43" s="60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="60" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44">
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="61" t="s">
+      <c r="H44" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="61" t="s">
+      <c r="J44" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="61" t="s">
+      <c r="L44" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="M44" s="60"/>
-      <c r="N44" s="61"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="60"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60" t="s">
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F45" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="61"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="60"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="63" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="65"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3765,7 +3779,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3785,7 +3799,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
@@ -3795,259 +3809,259 @@
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="G3" s="68" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="G3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="77" t="s">
+      <c r="O18" s="76" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4055,262 +4069,262 @@
       <c r="B22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="73" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="G23" s="68" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="G23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66" t="s">
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
-      <c r="B24" s="82"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="83"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="66" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="82"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
-      <c r="B25" s="82"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="83"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="66" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="82"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="66" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="66" t="s">
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="66" t="s">
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="66" t="s">
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="66" t="s">
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
-      <c r="B31" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="68" t="s">
+      <c r="B31" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="66" t="s">
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="66" t="s">
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="66" t="s">
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="66" t="s">
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="L34" s="72"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="74"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="66" t="s">
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="L35" s="72"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="66" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="L36" s="72"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="74"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="66" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="L37" s="72"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="66" t="s">
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="87" t="s">
+      <c r="L38" s="74"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="87" t="s">
+      <c r="O38" s="86" t="s">
         <v>13</v>
       </c>
     </row>
